--- a/Data/list_os_ browsers.xlsx
+++ b/Data/list_os_ browsers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr date1904="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicco\PycharmProjects\ML_CyberAttaK\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941CEB3-845F-4E42-8CE8-EC40511E7CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D92D46B-2E6D-4EE5-B6EE-8086A04879E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F0FA95EE-CF0E-4DCD-89A9-467B4FC741F5}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1577,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1586,9 +1586,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,9 +1600,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1613,9 +1607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1618,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,9 +1631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,8 +1655,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1710,12 +1692,28 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1750,7 +1748,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1778,15 +1776,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1870,9 +1859,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{536D93D0-7528-446F-9AB6-7143A03A186F}" name="Système d'exploitation" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FEE3E96B-C2DA-4079-B97F-4B486B3D6F86}" name="Version" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A55C3783-B48D-41B6-8646-AD6C351AEE8A}" name="Date de sortie" dataDxfId="1" dataCellStyle="Milliers"/>
-    <tableColumn id="4" xr3:uid="{BA2BDE93-16E3-4813-B2F6-1F0B9766E643}" name="Date de fin de support" dataDxfId="0" dataCellStyle="Milliers"/>
+    <tableColumn id="2" xr3:uid="{FEE3E96B-C2DA-4079-B97F-4B486B3D6F86}" name="Version" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A55C3783-B48D-41B6-8646-AD6C351AEE8A}" name="Date de sortie" dataDxfId="4" dataCellStyle="Milliers"/>
+    <tableColumn id="4" xr3:uid="{BA2BDE93-16E3-4813-B2F6-1F0B9766E643}" name="Date de fin de support" dataDxfId="3" dataCellStyle="Milliers"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1885,7 +1874,7 @@
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{932AB75A-6B41-4CB5-BD1B-A282C6CD66AE}" name="version_os" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{932AB75A-6B41-4CB5-BD1B-A282C6CD66AE}" name="version_os" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1898,7 +1887,7 @@
     <sortCondition ref="A1:A130"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A9FA7056-05B0-4E35-8855-1E650979822F}" name="browser_os" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A9FA7056-05B0-4E35-8855-1E650979822F}" name="browser_os" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1908,7 +1897,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67B03935-4BB9-4B4F-B0B4-A0C2D4D19520}" name="output_device" displayName="output_device" ref="A1:A4" totalsRowShown="0">
   <autoFilter ref="A1:A4" xr:uid="{67B03935-4BB9-4B4F-B0B4-A0C2D4D19520}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{23DFA53C-8FF3-43F1-A017-EB9679DCBE66}" name="device_type" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{23DFA53C-8FF3-43F1-A017-EB9679DCBE66}" name="device_type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2234,16 +2223,16 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="28.53125" style="31" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="31"/>
-    <col min="5" max="5" width="10.6640625" style="49"/>
-    <col min="6" max="6" width="10.6640625" style="31"/>
+    <col min="1" max="1" width="21.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28.53125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="25"/>
+    <col min="4" max="5" width="10.6640625" style="43"/>
+    <col min="6" max="6" width="10.6640625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2256,3506 +2245,3507 @@
       <c r="C1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="37">
         <v>1995</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="32">
         <v>1995</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="38">
         <v>1995</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="33">
         <v>1995</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="38">
         <v>1996</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="33">
         <v>1996</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="38">
         <v>1997</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="33">
         <v>2001</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="38">
         <v>1999</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="33">
         <v>2000</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="38">
         <v>2001</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="33">
         <v>2006</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="38">
         <v>2006</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="33">
         <v>2009</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="38">
         <v>2001</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="33">
         <v>2009</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="38">
         <v>2006</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="33">
         <v>2011</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="38">
         <v>2012</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="33">
         <v>2016</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>11</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="39">
         <v>2009</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="34">
         <v>2023</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>3</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="38">
         <v>1997</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="33">
         <v>2000</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="38">
         <v>2000</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="33">
         <v>2001</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>5</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="38">
         <v>2000</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="33">
         <v>2001</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>10</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="38">
         <v>2009</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="33">
         <v>2010</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>20</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="38">
         <v>2014</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="33">
         <v>2015</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>60</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="38">
         <v>2019</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="33">
         <v>2020</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>100</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="38">
         <v>2023</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="33">
         <v>2024</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>101</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="38">
         <v>2023</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="33">
         <v>2025</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>102</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="38">
         <v>2023</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="33">
         <v>2025</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>103</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="38">
         <v>2023</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="33">
         <v>2025</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>104</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="38">
         <v>2023</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="33">
         <v>2025</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>105</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="38">
         <v>2023</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="33">
         <v>2025</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>106</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="38">
         <v>2023</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="33">
         <v>2025</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>107</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="38">
         <v>2024</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="33">
         <v>2025</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>108</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="38">
         <v>2024</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="33">
         <v>2025</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>109</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="38">
         <v>2024</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="33">
         <v>2025</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>110</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="38">
         <v>2024</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="33">
         <v>2025</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>111</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="38">
         <v>2024</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="33">
         <v>2025</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <v>112</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="38">
         <v>2024</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="33">
         <v>2025</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <v>113</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="38">
         <v>2024</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="33">
         <v>2025</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>114</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="38">
         <v>2024</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="33">
         <v>2025</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>115</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="39">
         <v>2024</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="33">
         <v>2025</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="13" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="40">
         <v>2003</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="35">
         <v>2004</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="16" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="9">
         <v>2</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="38">
         <v>2005</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="33">
         <v>2007</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="9">
         <v>3</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="38">
         <v>2007</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="33">
         <v>2009</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <v>4</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="38">
         <v>2009</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="33">
         <v>2011</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <v>5</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="38">
         <v>2010</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="33">
         <v>2012</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>10</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="38">
         <v>2016</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="33">
         <v>2017</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>15</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="38">
         <v>2021</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="33">
         <v>2022</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="18">
         <v>17</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="47">
         <v>2023</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="36">
         <v>2024</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="19" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="40">
         <v>2007</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="35">
         <v>2008</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>2</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="38">
         <v>2008</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="33">
         <v>2009</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>3</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="38">
         <v>2009</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="33">
         <v>2010</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>4</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="38">
         <v>2010</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="33">
         <v>2011</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>5</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="38">
         <v>2011</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="33">
         <v>2012</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>10</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="38">
         <v>2016</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="33">
         <v>2017</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>15</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="38">
         <v>2021</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="33">
         <v>2023</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="18">
         <v>17</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="47">
         <v>2021</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="36">
         <v>2023</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="20" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="32">
         <v>2004</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="37">
         <v>2005</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="22">
         <v>1.5</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="33">
         <v>2005</v>
       </c>
-      <c r="E52" s="44">
+      <c r="E52" s="38">
         <v>2006</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="33">
         <v>2006</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="38">
         <v>2008</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="33">
         <v>2008</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="38">
         <v>2010</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="33">
         <v>2009</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="38">
         <v>2010</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="33">
         <v>2010</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E56" s="38">
         <v>2012</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="33">
         <v>2011</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="38">
         <v>2011</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="33">
         <v>2011</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="38">
         <v>2011</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="33">
         <v>2011</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="38">
         <v>2011</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="33">
         <v>2011</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E60" s="38">
         <v>2011</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="33">
         <v>2011</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="38">
         <v>2011</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="33">
         <v>2011</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="38">
         <v>2011</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="33">
         <v>2011</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="38">
         <v>2012</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="33">
         <v>2012</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="38">
         <v>2012</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="33">
         <v>2012</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="38">
         <v>2012</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="33">
         <v>2012</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="38">
         <v>2012</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="33">
         <v>2012</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="38">
         <v>2012</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="33">
         <v>2012</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="38">
         <v>2012</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="33">
         <v>2012</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="38">
         <v>2012</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="33">
         <v>2012</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="38">
         <v>2012</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="33">
         <v>2012</v>
       </c>
-      <c r="E71" s="44">
+      <c r="E71" s="38">
         <v>2013</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="33">
         <v>2013</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="38">
         <v>2013</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="22">
         <v>19</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="33">
         <v>2013</v>
       </c>
-      <c r="E73" s="44">
+      <c r="E73" s="38">
         <v>2013</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="28">
+      <c r="C74" s="22">
         <v>20</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="33">
         <v>2013</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="38">
         <v>2013</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="22">
         <v>21</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="33">
         <v>2013</v>
       </c>
-      <c r="E75" s="44">
+      <c r="E75" s="38">
         <v>2013</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="22">
         <v>22</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="33">
         <v>2013</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="38">
         <v>2013</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="22">
         <v>23</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="33">
         <v>2013</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="38">
         <v>2013</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="22">
         <v>24</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="33">
         <v>2013</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="38">
         <v>2013</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="22">
         <v>25</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="33">
         <v>2013</v>
       </c>
-      <c r="E79" s="44">
+      <c r="E79" s="38">
         <v>2013</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C80" s="22">
         <v>26</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="33">
         <v>2013</v>
       </c>
-      <c r="E80" s="44">
+      <c r="E80" s="38">
         <v>2014</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="22">
         <v>27</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="33">
         <v>2014</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="38">
         <v>2014</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="22">
         <v>28</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="33">
         <v>2014</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="38">
         <v>2014</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="22">
         <v>29</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="33">
         <v>2014</v>
       </c>
-      <c r="E83" s="44">
+      <c r="E83" s="38">
         <v>2014</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="22">
         <v>30</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="33">
         <v>2014</v>
       </c>
-      <c r="E84" s="44">
+      <c r="E84" s="38">
         <v>2014</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="22">
         <v>31</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="33">
         <v>2014</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="38">
         <v>2014</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="22">
         <v>32</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="33">
         <v>2014</v>
       </c>
-      <c r="E86" s="44">
+      <c r="E86" s="38">
         <v>2014</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="22">
         <v>33</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="33">
         <v>2014</v>
       </c>
-      <c r="E87" s="44">
+      <c r="E87" s="38">
         <v>2014</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="28">
+      <c r="C88" s="22">
         <v>34</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="33">
         <v>2014</v>
       </c>
-      <c r="E88" s="44">
+      <c r="E88" s="38">
         <v>2015</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C89" s="22">
         <v>35</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="33">
         <v>2015</v>
       </c>
-      <c r="E89" s="44">
+      <c r="E89" s="38">
         <v>2015</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C90" s="22">
         <v>36</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="33">
         <v>2015</v>
       </c>
-      <c r="E90" s="44">
+      <c r="E90" s="38">
         <v>2015</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C91" s="22">
         <v>37</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="33">
         <v>2015</v>
       </c>
-      <c r="E91" s="44">
+      <c r="E91" s="38">
         <v>2015</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="22">
         <v>38</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="33">
         <v>2015</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="38">
         <v>2015</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="22">
         <v>39</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="33">
         <v>2015</v>
       </c>
-      <c r="E93" s="44">
+      <c r="E93" s="38">
         <v>2015</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="22">
         <v>40</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="33">
         <v>2015</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="38">
         <v>2015</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="22">
         <v>41</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="33">
         <v>2015</v>
       </c>
-      <c r="E95" s="44">
+      <c r="E95" s="38">
         <v>2015</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="22">
         <v>42</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="33">
         <v>2015</v>
       </c>
-      <c r="E96" s="44">
+      <c r="E96" s="38">
         <v>2015</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="22">
         <v>43</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="33">
         <v>2015</v>
       </c>
-      <c r="E97" s="44">
+      <c r="E97" s="38">
         <v>2016</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="22">
         <v>44</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="33">
         <v>2016</v>
       </c>
-      <c r="E98" s="44">
+      <c r="E98" s="38">
         <v>2016</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="22">
         <v>45</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="33">
         <v>2016</v>
       </c>
-      <c r="E99" s="44">
+      <c r="E99" s="38">
         <v>2016</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="22">
         <v>46</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="33">
         <v>2016</v>
       </c>
-      <c r="E100" s="44">
+      <c r="E100" s="38">
         <v>2016</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="22">
         <v>47</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="33">
         <v>2016</v>
       </c>
-      <c r="E101" s="44">
+      <c r="E101" s="38">
         <v>2016</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C102" s="28">
+      <c r="C102" s="22">
         <v>48</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="33">
         <v>2016</v>
       </c>
-      <c r="E102" s="44">
+      <c r="E102" s="38">
         <v>2016</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C103" s="22">
         <v>49</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="33">
         <v>2016</v>
       </c>
-      <c r="E103" s="44">
+      <c r="E103" s="38">
         <v>2016</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C104" s="28">
+      <c r="C104" s="22">
         <v>50</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="33">
         <v>2016</v>
       </c>
-      <c r="E104" s="44">
+      <c r="E104" s="38">
         <v>2017</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C105" s="22">
         <v>51</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="33">
         <v>2017</v>
       </c>
-      <c r="E105" s="44">
+      <c r="E105" s="38">
         <v>2017</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="28">
+      <c r="C106" s="22">
         <v>52</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="33">
         <v>2017</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="38">
         <v>2017</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C107" s="22">
         <v>53</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="33">
         <v>2017</v>
       </c>
-      <c r="E107" s="44">
+      <c r="E107" s="38">
         <v>2017</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C108" s="22">
         <v>54</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="33">
         <v>2017</v>
       </c>
-      <c r="E108" s="44">
+      <c r="E108" s="38">
         <v>2017</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C109" s="22">
         <v>55</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="33">
         <v>2017</v>
       </c>
-      <c r="E109" s="44">
+      <c r="E109" s="38">
         <v>2017</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="28">
+      <c r="C110" s="22">
         <v>56</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="33">
         <v>2017</v>
       </c>
-      <c r="E110" s="44">
+      <c r="E110" s="38">
         <v>2017</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C111" s="22">
         <v>57</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="33">
         <v>2017</v>
       </c>
-      <c r="E111" s="44">
+      <c r="E111" s="38">
         <v>2018</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C112" s="22">
         <v>58</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="33">
         <v>2018</v>
       </c>
-      <c r="E112" s="44">
+      <c r="E112" s="38">
         <v>2018</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C113" s="22">
         <v>59</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="33">
         <v>2018</v>
       </c>
-      <c r="E113" s="44">
+      <c r="E113" s="38">
         <v>2018</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="22">
         <v>60</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="33">
         <v>2018</v>
       </c>
-      <c r="E114" s="44">
+      <c r="E114" s="38">
         <v>2018</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115" s="22">
         <v>61</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="33">
         <v>2018</v>
       </c>
-      <c r="E115" s="44">
+      <c r="E115" s="38">
         <v>2018</v>
       </c>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="22">
         <v>62</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="33">
         <v>2018</v>
       </c>
-      <c r="E116" s="44">
+      <c r="E116" s="38">
         <v>2018</v>
       </c>
-      <c r="F116" s="11" t="s">
+      <c r="F116" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C117" s="22">
         <v>63</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="33">
         <v>2018</v>
       </c>
-      <c r="E117" s="44">
+      <c r="E117" s="38">
         <v>2018</v>
       </c>
-      <c r="F117" s="11" t="s">
+      <c r="F117" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C118" s="22">
         <v>64</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="33">
         <v>2018</v>
       </c>
-      <c r="E118" s="44">
+      <c r="E118" s="38">
         <v>2019</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C119" s="22">
         <v>65</v>
       </c>
-      <c r="D119" s="11">
+      <c r="D119" s="33">
         <v>2018</v>
       </c>
-      <c r="E119" s="44">
+      <c r="E119" s="38">
         <v>2019</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="28">
+      <c r="C120" s="22">
         <v>66</v>
       </c>
-      <c r="D120" s="11">
+      <c r="D120" s="33">
         <v>2019</v>
       </c>
-      <c r="E120" s="44">
+      <c r="E120" s="38">
         <v>2019</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C121" s="22">
         <v>67</v>
       </c>
-      <c r="D121" s="11">
+      <c r="D121" s="33">
         <v>2019</v>
       </c>
-      <c r="E121" s="44">
+      <c r="E121" s="38">
         <v>2019</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="28">
+      <c r="C122" s="22">
         <v>68</v>
       </c>
-      <c r="D122" s="11">
+      <c r="D122" s="33">
         <v>2019</v>
       </c>
-      <c r="E122" s="44">
+      <c r="E122" s="38">
         <v>2019</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C123" s="28">
+      <c r="C123" s="22">
         <v>69</v>
       </c>
-      <c r="D123" s="11">
+      <c r="D123" s="33">
         <v>2019</v>
       </c>
-      <c r="E123" s="44">
+      <c r="E123" s="38">
         <v>2019</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C124" s="28">
+      <c r="C124" s="22">
         <v>70</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="33">
         <v>2019</v>
       </c>
-      <c r="E124" s="44">
+      <c r="E124" s="38">
         <v>2019</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="34">
         <v>2011</v>
       </c>
-      <c r="E125" s="45">
+      <c r="E125" s="39">
         <v>2011</v>
       </c>
-      <c r="F125" s="15" t="s">
+      <c r="F125" s="12" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="35">
         <v>2011</v>
       </c>
-      <c r="E126" s="46">
+      <c r="E126" s="40">
         <v>2011</v>
       </c>
-      <c r="F126" s="19" t="s">
+      <c r="F126" s="15" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="33">
         <v>2011</v>
       </c>
-      <c r="E127" s="44">
+      <c r="E127" s="38">
         <v>2012</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F127" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="33">
         <v>2011</v>
       </c>
-      <c r="E128" s="44">
+      <c r="E128" s="38">
         <v>2012</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="33">
         <v>2012</v>
       </c>
-      <c r="E129" s="44">
+      <c r="E129" s="38">
         <v>2012</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="C130" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="33">
         <v>2012</v>
       </c>
-      <c r="E130" s="44">
+      <c r="E130" s="38">
         <v>2012</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="F130" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="33">
         <v>2012</v>
       </c>
-      <c r="E131" s="44">
+      <c r="E131" s="38">
         <v>2012</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F131" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="C132" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="33">
         <v>2012</v>
       </c>
-      <c r="E132" s="44">
+      <c r="E132" s="38">
         <v>2012</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" s="9" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="28" t="s">
+      <c r="C133" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="33">
         <v>2012</v>
       </c>
-      <c r="E133" s="44">
+      <c r="E133" s="38">
         <v>2012</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C134" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="33">
         <v>2012</v>
       </c>
-      <c r="E134" s="44">
+      <c r="E134" s="38">
         <v>2012</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="F134" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C135" s="28" t="s">
+      <c r="C135" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="D135" s="11">
+      <c r="D135" s="33">
         <v>2012</v>
       </c>
-      <c r="E135" s="44">
+      <c r="E135" s="38">
         <v>2013</v>
       </c>
-      <c r="F135" s="11" t="s">
+      <c r="F135" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C136" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="33">
         <v>2013</v>
       </c>
-      <c r="E136" s="44">
+      <c r="E136" s="38">
         <v>2013</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="C137" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="33">
         <v>2013</v>
       </c>
-      <c r="E137" s="44">
+      <c r="E137" s="38">
         <v>2013</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C138" s="28" t="s">
+      <c r="C138" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="33">
         <v>2013</v>
       </c>
-      <c r="E138" s="44">
+      <c r="E138" s="38">
         <v>2013</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D139" s="11">
+      <c r="D139" s="33">
         <v>2013</v>
       </c>
-      <c r="E139" s="44">
+      <c r="E139" s="38">
         <v>2013</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F139" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="C140" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="33">
         <v>2013</v>
       </c>
-      <c r="E140" s="44">
+      <c r="E140" s="38">
         <v>2013</v>
       </c>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="33">
         <v>2013</v>
       </c>
-      <c r="E141" s="44">
+      <c r="E141" s="38">
         <v>2013</v>
       </c>
-      <c r="F141" s="11" t="s">
+      <c r="F141" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="33">
         <v>2013</v>
       </c>
-      <c r="E142" s="44">
+      <c r="E142" s="38">
         <v>2013</v>
       </c>
-      <c r="F142" s="11" t="s">
+      <c r="F142" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="33">
         <v>2013</v>
       </c>
-      <c r="E143" s="44">
+      <c r="E143" s="38">
         <v>2014</v>
       </c>
-      <c r="F143" s="11" t="s">
+      <c r="F143" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="33">
         <v>2014</v>
       </c>
-      <c r="E144" s="44">
+      <c r="E144" s="38">
         <v>2014</v>
       </c>
-      <c r="F144" s="11" t="s">
+      <c r="F144" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="33">
         <v>2014</v>
       </c>
-      <c r="E145" s="44">
+      <c r="E145" s="38">
         <v>2014</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="33">
         <v>2014</v>
       </c>
-      <c r="E146" s="44">
+      <c r="E146" s="38">
         <v>2014</v>
       </c>
-      <c r="F146" s="11" t="s">
+      <c r="F146" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D147" s="33">
         <v>2014</v>
       </c>
-      <c r="E147" s="44">
+      <c r="E147" s="38">
         <v>2014</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="33">
         <v>2014</v>
       </c>
-      <c r="E148" s="44">
+      <c r="E148" s="38">
         <v>2014</v>
       </c>
-      <c r="F148" s="11" t="s">
+      <c r="F148" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="33">
         <v>2014</v>
       </c>
-      <c r="E149" s="44">
+      <c r="E149" s="38">
         <v>2014</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="C150" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="33">
         <v>2014</v>
       </c>
-      <c r="E150" s="44">
+      <c r="E150" s="38">
         <v>2014</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="33">
         <v>2014</v>
       </c>
-      <c r="E151" s="44">
+      <c r="E151" s="38">
         <v>2015</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="F151" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="C152" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="33">
         <v>2015</v>
       </c>
-      <c r="E152" s="44">
+      <c r="E152" s="38">
         <v>2015</v>
       </c>
-      <c r="F152" s="11" t="s">
+      <c r="F152" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="33">
         <v>2015</v>
       </c>
-      <c r="E153" s="44">
+      <c r="E153" s="38">
         <v>2015</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="F153" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C154" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="33">
         <v>2015</v>
       </c>
-      <c r="E154" s="44">
+      <c r="E154" s="38">
         <v>2015</v>
       </c>
-      <c r="F154" s="11" t="s">
+      <c r="F154" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="33">
         <v>2015</v>
       </c>
-      <c r="E155" s="44">
+      <c r="E155" s="38">
         <v>2015</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="C156" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="33">
         <v>2015</v>
       </c>
-      <c r="E156" s="44">
+      <c r="E156" s="38">
         <v>2015</v>
       </c>
-      <c r="F156" s="11" t="s">
+      <c r="F156" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="33">
         <v>2015</v>
       </c>
-      <c r="E157" s="44">
+      <c r="E157" s="38">
         <v>2015</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F157" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="C158" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="33">
         <v>2015</v>
       </c>
-      <c r="E158" s="44">
+      <c r="E158" s="38">
         <v>2015</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="F158" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D159" s="11">
+      <c r="D159" s="33">
         <v>2015</v>
       </c>
-      <c r="E159" s="44">
+      <c r="E159" s="38">
         <v>2016</v>
       </c>
-      <c r="F159" s="11" t="s">
+      <c r="F159" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="33">
         <v>2016</v>
       </c>
-      <c r="E160" s="44">
+      <c r="E160" s="38">
         <v>2016</v>
       </c>
-      <c r="F160" s="11" t="s">
+      <c r="F160" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="C161" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="33">
         <v>2016</v>
       </c>
-      <c r="E161" s="44">
+      <c r="E161" s="38">
         <v>2016</v>
       </c>
-      <c r="F161" s="11" t="s">
+      <c r="F161" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="33">
         <v>2016</v>
       </c>
-      <c r="E162" s="44">
+      <c r="E162" s="38">
         <v>2016</v>
       </c>
-      <c r="F162" s="11" t="s">
+      <c r="F162" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="33">
         <v>2016</v>
       </c>
-      <c r="E163" s="44">
+      <c r="E163" s="38">
         <v>2016</v>
       </c>
-      <c r="F163" s="11" t="s">
+      <c r="F163" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C164" s="28" t="s">
+      <c r="C164" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="33">
         <v>2016</v>
       </c>
-      <c r="E164" s="44">
+      <c r="E164" s="38">
         <v>2016</v>
       </c>
-      <c r="F164" s="11" t="s">
+      <c r="F164" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C165" s="28" t="s">
+      <c r="C165" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="D165" s="11">
+      <c r="D165" s="33">
         <v>2016</v>
       </c>
-      <c r="E165" s="44">
+      <c r="E165" s="38">
         <v>2016</v>
       </c>
-      <c r="F165" s="11" t="s">
+      <c r="F165" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D166" s="11">
+      <c r="D166" s="33">
         <v>2016</v>
       </c>
-      <c r="E166" s="44">
+      <c r="E166" s="38">
         <v>2016</v>
       </c>
-      <c r="F166" s="11" t="s">
+      <c r="F166" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C167" s="28" t="s">
+      <c r="C167" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D167" s="11">
+      <c r="D167" s="33">
         <v>2016</v>
       </c>
-      <c r="E167" s="44">
+      <c r="E167" s="38">
         <v>2017</v>
       </c>
-      <c r="F167" s="11" t="s">
+      <c r="F167" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C168" s="28" t="s">
+      <c r="C168" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="33">
         <v>2017</v>
       </c>
-      <c r="E168" s="44">
+      <c r="E168" s="38">
         <v>2017</v>
       </c>
-      <c r="F168" s="11" t="s">
+      <c r="F168" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="33">
         <v>2017</v>
       </c>
-      <c r="E169" s="44">
+      <c r="E169" s="38">
         <v>2017</v>
       </c>
-      <c r="F169" s="11" t="s">
+      <c r="F169" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="33">
         <v>2017</v>
       </c>
-      <c r="E170" s="44">
+      <c r="E170" s="38">
         <v>2017</v>
       </c>
-      <c r="F170" s="11" t="s">
+      <c r="F170" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="33">
         <v>2017</v>
       </c>
-      <c r="E171" s="44">
+      <c r="E171" s="38">
         <v>2017</v>
       </c>
-      <c r="F171" s="11" t="s">
+      <c r="F171" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="33">
         <v>2017</v>
       </c>
-      <c r="E172" s="44">
+      <c r="E172" s="38">
         <v>2017</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C173" s="28" t="s">
+      <c r="C173" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="33">
         <v>2017</v>
       </c>
-      <c r="E173" s="44">
+      <c r="E173" s="38">
         <v>2017</v>
       </c>
-      <c r="F173" s="11" t="s">
+      <c r="F173" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="33">
         <v>2017</v>
       </c>
-      <c r="E174" s="44">
+      <c r="E174" s="38">
         <v>2017</v>
       </c>
-      <c r="F174" s="11" t="s">
+      <c r="F174" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C175" s="28" t="s">
+      <c r="C175" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="33">
         <v>2017</v>
       </c>
-      <c r="E175" s="44">
+      <c r="E175" s="38">
         <v>2018</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="F175" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A176" s="32"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="33"/>
-    </row>
-    <row r="177" spans="5:5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E177" s="48"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="27"/>
+    </row>
+    <row r="177" spans="4:5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D177" s="42"/>
+      <c r="E177" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5766,1037 +5756,1037 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1E84DC-34AE-4A3B-8D33-E5E32A6DD7D6}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="42.73046875" customWidth="1"/>
     <col min="2" max="2" width="30.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="36"/>
-    <col min="4" max="4" width="10.6640625" style="51"/>
+    <col min="3" max="3" width="10.6640625" style="30"/>
+    <col min="4" max="4" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="29">
         <v>2009</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="44">
         <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="29">
         <v>2019</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="44">
         <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="29">
         <v>2020</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="44">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="29">
         <v>2021</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="44">
         <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="29">
         <v>2022</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="44">
         <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="29">
         <v>2023</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="44">
         <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="29">
         <v>2024</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="44">
         <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="29">
         <v>2010</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="44">
         <v>2010</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="29">
         <v>2011</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="44">
         <v>2011</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="29">
         <v>2013</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="44">
         <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="29">
         <v>2014</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="44">
         <v>2014</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="29">
         <v>2015</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="44">
         <v>2015</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="29">
         <v>2016</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="44">
         <v>2016</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="29">
         <v>2017</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="44">
         <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="29">
         <v>2018</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="44">
         <v>2018</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="29">
         <v>2007</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="44">
         <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="29">
         <v>2016</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="44">
         <v>2019</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="29">
         <v>2017</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="44">
         <v>2018</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="29">
         <v>2018</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="44">
         <v>2023</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="29">
         <v>2019</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="44">
         <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="29">
         <v>2020</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="44">
         <v>2021</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="29">
         <v>2021</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="44">
         <v>2024</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="29">
         <v>2022</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="44">
         <v>2024</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="29">
         <v>2023</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="44">
         <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="29">
         <v>2024</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="44">
         <v>2024</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="29">
         <v>2008</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="44">
         <v>2009</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="29">
         <v>2009</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="44">
         <v>2010</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="29">
         <v>2010</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="44">
         <v>2011</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="29">
         <v>2011</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="44">
         <v>2012</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="29">
         <v>2012</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="44">
         <v>2014</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="29">
         <v>2013</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="44">
         <v>2014</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="29">
         <v>2014</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="44">
         <v>2015</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="29">
         <v>2015</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="44">
         <v>2019</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D35" s="50">
+      <c r="C35" s="29">
+        <v>2016</v>
+      </c>
+      <c r="D35" s="44">
         <v>2019</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D36" s="50">
+      <c r="C36" s="29">
         <v>2020</v>
       </c>
+      <c r="D36" s="44">
+        <v>2020</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D37" s="50">
+      <c r="C37" s="29">
         <v>2021</v>
       </c>
+      <c r="D37" s="44">
+        <v>2021</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D38" s="50">
+      <c r="C38" s="29">
         <v>2022</v>
       </c>
+      <c r="D38" s="44">
+        <v>2022</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D39" s="50">
+      <c r="C39" s="29">
         <v>2023</v>
       </c>
+      <c r="D39" s="44">
+        <v>2023</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D40" s="50">
+      <c r="C40" s="29">
         <v>2024</v>
       </c>
+      <c r="D40" s="44">
+        <v>2024</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D41" s="50">
+      <c r="C41" s="29">
         <v>2011</v>
       </c>
+      <c r="D41" s="44">
+        <v>2011</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D42" s="50">
+      <c r="C42" s="29">
         <v>2015</v>
       </c>
+      <c r="D42" s="44">
+        <v>2015</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D43" s="50">
+      <c r="C43" s="29">
+        <v>1985</v>
+      </c>
+      <c r="D43" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D44" s="50">
+      <c r="C44" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D44" s="44">
         <v>2025</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D45" s="50">
+      <c r="C45" s="29">
+        <v>2021</v>
+      </c>
+      <c r="D45" s="44">
         <v>2026</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D46" s="50">
+      <c r="C46" s="29">
+        <v>1987</v>
+      </c>
+      <c r="D46" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D47" s="50">
+      <c r="C47" s="29">
+        <v>1999</v>
+      </c>
+      <c r="D47" s="44">
         <v>2010</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D48" s="50">
+      <c r="C48" s="29">
+        <v>1990</v>
+      </c>
+      <c r="D48" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D49" s="50">
+      <c r="C49" s="29">
+        <v>2009</v>
+      </c>
+      <c r="D49" s="44">
         <v>2020</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D50" s="50">
+      <c r="C50" s="29">
+        <v>2012</v>
+      </c>
+      <c r="D50" s="44">
         <v>2023</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D51" s="50">
+      <c r="C51" s="29">
+        <v>1995</v>
+      </c>
+      <c r="D51" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D52" s="50">
+      <c r="C52" s="29">
+        <v>1998</v>
+      </c>
+      <c r="D52" s="44">
         <v>2006</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D53" s="50">
+      <c r="C53" s="29">
+        <v>1996</v>
+      </c>
+      <c r="D53" s="44">
         <v>2013</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D54" s="50">
+      <c r="C54" s="29">
+        <v>1990</v>
+      </c>
+      <c r="D54" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D55" s="50">
+      <c r="C55" s="29">
+        <v>2006</v>
+      </c>
+      <c r="D55" s="44">
         <v>2014</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D56" s="50">
+      <c r="C56" s="29">
+        <v>2007</v>
+      </c>
+      <c r="D56" s="44">
         <v>2016</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D57" s="50">
+      <c r="C57" s="29">
+        <v>2011</v>
+      </c>
+      <c r="D57" s="44">
         <v>2016</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D58" s="50">
+      <c r="C58" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="44">
         <v>2006</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D59" s="50">
+      <c r="C59" s="29">
+        <v>1996</v>
+      </c>
+      <c r="D59" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D60" s="50">
+      <c r="C60" s="29">
+        <v>1995</v>
+      </c>
+      <c r="D60" s="44">
         <v>2001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="C61" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D61" s="50">
+      <c r="C61" s="29">
+        <v>1996</v>
+      </c>
+      <c r="D61" s="44">
         <v>2004</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D62" s="50">
+      <c r="C62" s="29">
+        <v>2003</v>
+      </c>
+      <c r="D62" s="44">
         <v>2015</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D63" s="50">
+      <c r="C63" s="29">
+        <v>2008</v>
+      </c>
+      <c r="D63" s="44">
         <v>2020</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C64" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D64" s="50">
+      <c r="C64" s="29">
+        <v>2009</v>
+      </c>
+      <c r="D64" s="44">
         <v>2020</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D65" s="50">
+      <c r="C65" s="29">
+        <v>2012</v>
+      </c>
+      <c r="D65" s="44">
         <v>2023</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C66" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D66" s="50">
+      <c r="C66" s="29">
+        <v>2013</v>
+      </c>
+      <c r="D66" s="44">
         <v>2023</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D67" s="50">
+      <c r="C67" s="29">
+        <v>2016</v>
+      </c>
+      <c r="D67" s="44">
         <v>2027</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C68" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D68" s="50">
+      <c r="C68" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D68" s="44">
         <v>2029</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D69" s="50">
+      <c r="C69" s="29">
+        <v>2021</v>
+      </c>
+      <c r="D69" s="44">
         <v>2031</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D70" s="50">
+      <c r="C70" s="29">
+        <v>2007</v>
+      </c>
+      <c r="D70" s="44">
         <v>2017</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D71" s="50">
+      <c r="C71" s="29">
+        <v>2001</v>
+      </c>
+      <c r="D71" s="44">
         <v>2014</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D72" s="50">
+      <c r="C72" s="29">
+        <v>2003</v>
+      </c>
+      <c r="D72" s="44">
         <v>2014</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="35">
-        <v>1900</v>
-      </c>
-      <c r="D73" s="50">
+      <c r="C73" s="29">
+        <v>2005</v>
+      </c>
+      <c r="D73" s="44">
         <v>2014</v>
       </c>
     </row>
